--- a/resource/manualFabrication-material.xlsx
+++ b/resource/manualFabrication-material.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yiyue\Documents\mit\tactile-skin-tool\resource\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C532CE8-75D7-426B-A858-EC086A5D9118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="3000" yWindow="3000" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Materials</t>
   </si>
@@ -55,31 +64,42 @@
     <t>https://www.amazon.com/467MP-Clear-Adhesive-Transfer-length/dp/B007Y7CV86/ref=sr_1_6?crid=4LGOBM16QLKK&amp;dib=eyJ2IjoiMSJ9.ZenxXn1UJFV5_JdMLJRBWw_yShM070XzQHB77v47ksz01RWkLaujzYqyiF_40xB5qc5dMlVVx5XIlr2CYyEkSgnYGXNxI33n8_yoGu_rdMXHFgpejrbId8Xf8oHnrpniHUBcuhH_IO-U5V5m2fEt-Sv9l4WVrWeXSf4TufbSI7mUfOle8uEBrULnJ-h7of_7ehmMwCabrS53F5gaYUaMc0v_cZomcChCrYzyg6RZ0h0.PKGq_w4_YVl2kmHXqM6aITshPr3hek69pXC53nI_qxk&amp;dib_tag=se&amp;keywords=3m+m468+tape&amp;qid=1713292002&amp;sprefix=3m+m468+tape%2Caps%2C65&amp;sr=8-6</t>
   </si>
   <si>
-    <t>hin plastic wrap</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/Saran-Premium-Plastic-Wrap-100/dp/B00J5IMDMG/ref=sr_1_6?crid=CM08OVJQ87GF&amp;dib=eyJ2IjoiMSJ9.d1GzVgGbPPXOlpV_DvEIugvJ2rkQ4gbryTgo3Npj8vWzxu-EXxPF1B4WuYxUeqeiE9oTjshFm2HtWm1E3Kj-ZAtnYaIXncjCr8XROrxJnD0orkNLDKrejoLzO0-dlX4QvhvvAPQ1HQiqXTcPEiVlt9owCX8yfUrGlxy2PSyj4ykpE17vVkn7NF5KGFMuhHFXyjePU0WW7RKMlBprcNbjp4JbRx73Bv5ctgAPgzFkKx_dqwoda6KcCSfSYkZ0NHuAhwUlHDt06Qp3WQ0DBwdZuQk9J22WRW5bhjFqsfm1f0s.lxIjaA7Iu4adwtFoVT_bST1cyEZlaVxGHmTNz6Tdzxo&amp;dib_tag=se&amp;keywords=saran+wrap&amp;qid=1713292058&amp;sprefix=saran+wrap%2Caps%2C108&amp;sr=8-6</t>
+  </si>
+  <si>
+    <t>Conductive fabric</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/ZTTXL-43-Big-Yards-Conductive/dp/B0CL94L9L3/ref=sr_1_3?crid=139TEDO31KRTH&amp;dib=eyJ2IjoiMSJ9.8CUEC2eUsRSotBR7x0M9zuHCvaa41kNeHp-i8tPde-9LwQF3h0ZzX8tN9iPrw_c9PdBIztBRvqlKobZcffHlSJfCnr2mpeVhERe2F05pOF5wBlA1bCi2L11R9yCrZw8BAtA2Dwiz_fGfKyuNlr1uElfImP3bACXG8uqEwnGf3EIRKZssuVzelPqwOlmSUuuWO7NsBpdVq2Xu89ZL6bOtZWlN_VE05b_4R8pt8fiSJFY.9pq3ZbjTgZhnxEuRhZ5JPf3WJu5cGeeO44Nv7YJC9bk&amp;dib_tag=se&amp;keywords=conductive+fabric&amp;qid=1733161383&amp;sprefix=conductive+fabri%2Caps%2C199&amp;sr=8-3</t>
+  </si>
+  <si>
+    <t>thin plastic wrap</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,37 +107,44 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -307,23 +334,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="47.75"/>
+    <col min="1" max="1" width="47.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -331,7 +363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -339,7 +371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -347,56 +379,64 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2"/>
-    <hyperlink r:id="rId2" ref="B3"/>
-    <hyperlink r:id="rId3" ref="B4"/>
-    <hyperlink r:id="rId4" ref="B5"/>
-    <hyperlink r:id="rId5" ref="B6"/>
-    <hyperlink r:id="rId6" ref="B7"/>
-    <hyperlink r:id="rId7" ref="B8"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
   </hyperlinks>
-  <drawing r:id="rId8"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>